--- a/data/checked/china/guangdong/guangdongCaseStatistics_20200423.xlsx
+++ b/data/checked/china/guangdong/guangdongCaseStatistics_20200423.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\checked\china\guangdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7E874-2EE4-4231-8EA2-35CD00501194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -399,7 +400,15 @@
     <definedName name="自贡市">中国各省市区县数据!$C$2043:$C$2048</definedName>
     <definedName name="遵义市">中国各省市区县数据!$C$2220:$C$2233</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -10443,7 +10452,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10886,64 +10895,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" style="12" customWidth="1"/>
     <col min="10" max="10" width="5" style="12" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="12" customWidth="1"/>
-    <col min="12" max="12" width="6.125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="5.7265625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="6.08984375" style="12" customWidth="1"/>
     <col min="13" max="13" width="18" style="12" customWidth="1"/>
-    <col min="14" max="14" width="16.875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="2.5" style="12" customWidth="1"/>
-    <col min="16" max="16" width="5.875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="6.625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="5.875" style="12" customWidth="1"/>
-    <col min="19" max="19" width="5.375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="16.25" style="12" customWidth="1"/>
-    <col min="21" max="21" width="1.75" style="12" customWidth="1"/>
-    <col min="22" max="22" width="2.375" style="12" customWidth="1"/>
-    <col min="23" max="23" width="3.625" style="12" customWidth="1"/>
-    <col min="24" max="24" width="5.25" style="12" customWidth="1"/>
+    <col min="14" max="14" width="16.90625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="2.453125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="5.90625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="6.6328125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="5.90625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="5.36328125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="16.26953125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="1.7265625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="2.36328125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="3.6328125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="5.26953125" style="12" customWidth="1"/>
     <col min="25" max="25" width="7" style="12" customWidth="1"/>
-    <col min="26" max="26" width="19.25" style="13" customWidth="1"/>
-    <col min="27" max="27" width="4.125" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="6.25" style="12" customWidth="1"/>
-    <col min="30" max="30" width="6.75" style="12" customWidth="1"/>
+    <col min="26" max="26" width="19.26953125" style="13" customWidth="1"/>
+    <col min="27" max="27" width="4.08984375" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.6328125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="6.26953125" style="12" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" style="12" customWidth="1"/>
     <col min="31" max="31" width="8" style="12" customWidth="1"/>
-    <col min="32" max="32" width="19.25" style="12" customWidth="1"/>
-    <col min="33" max="33" width="4.625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="7.625" style="12" customWidth="1"/>
-    <col min="35" max="35" width="7.375" style="12" customWidth="1"/>
-    <col min="36" max="36" width="17.125" style="12" customWidth="1"/>
-    <col min="37" max="37" width="4.5" style="12" customWidth="1"/>
-    <col min="38" max="38" width="9.25" style="12" customWidth="1"/>
-    <col min="39" max="39" width="10.625" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.875" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.875" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.875" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.5" style="12" customWidth="1"/>
+    <col min="32" max="32" width="19.26953125" style="12" customWidth="1"/>
+    <col min="33" max="33" width="4.6328125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="7.6328125" style="12" customWidth="1"/>
+    <col min="35" max="35" width="7.36328125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="17.08984375" style="12" customWidth="1"/>
+    <col min="37" max="37" width="4.453125" style="12" customWidth="1"/>
+    <col min="38" max="38" width="9.26953125" style="12" customWidth="1"/>
+    <col min="39" max="39" width="10.6328125" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.90625" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.90625" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.90625" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.453125" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.125" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.875" style="12"/>
+    <col min="46" max="46" width="5.08984375" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="11" customFormat="1" ht="15">
+    <row r="1" spans="1:46" s="11" customFormat="1" ht="16.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11083,7 +11092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" ht="16.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -11146,7 +11155,7 @@
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" ht="16.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -11171,7 +11180,7 @@
       <c r="I3" s="12">
         <v>1</v>
       </c>
-      <c r="N3" s="12">
+      <c r="M3" s="12">
         <v>3</v>
       </c>
       <c r="P3" s="12">
@@ -11193,7 +11202,7 @@
       <c r="AO3" s="13"/>
       <c r="AP3" s="13"/>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" ht="16.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -11230,7 +11239,7 @@
       <c r="AJ4" s="13"/>
       <c r="AO4" s="13"/>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" ht="16.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -11253,7 +11262,7 @@
         <v>49</v>
       </c>
       <c r="K5" s="16"/>
-      <c r="N5" s="12">
+      <c r="M5" s="12">
         <v>1</v>
       </c>
       <c r="P5" s="12">
@@ -11271,7 +11280,7 @@
       <c r="AJ5" s="13"/>
       <c r="AO5" s="13"/>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" ht="16.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -11311,7 +11320,7 @@
       <c r="AJ6" s="13"/>
       <c r="AO6" s="13"/>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" ht="16.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -11348,7 +11357,7 @@
       <c r="AJ7" s="13"/>
       <c r="AO7" s="13"/>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" ht="16.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -11385,7 +11394,7 @@
       <c r="AJ8" s="13"/>
       <c r="AO8" s="13"/>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" ht="16.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -11422,7 +11431,7 @@
       <c r="AJ9" s="13"/>
       <c r="AO9" s="13"/>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" ht="16.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11456,7 +11465,7 @@
       <c r="AJ10" s="13"/>
       <c r="AO10" s="13"/>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" ht="16.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -11491,7 +11500,7 @@
       <c r="AO11" s="13"/>
       <c r="AP11" s="13"/>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" ht="16.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -11529,7 +11538,7 @@
       <c r="AJ12" s="13"/>
       <c r="AO12" s="13"/>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" ht="16.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -11563,7 +11572,7 @@
       <c r="AJ13" s="13"/>
       <c r="AO13" s="13"/>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" ht="16.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -11597,7 +11606,7 @@
       <c r="AJ14" s="13"/>
       <c r="AO14" s="13"/>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" ht="16.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -11631,7 +11640,7 @@
       <c r="AJ15" s="13"/>
       <c r="AO15" s="13"/>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" ht="16.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -11665,7 +11674,7 @@
       <c r="AJ16" s="13"/>
       <c r="AO16" s="13"/>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" ht="16.2">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -11702,7 +11711,7 @@
       <c r="AJ17" s="13"/>
       <c r="AO17" s="13"/>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" ht="16.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -11736,7 +11745,7 @@
       <c r="AJ18" s="13"/>
       <c r="AO18" s="13"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" ht="16.2">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -11770,7 +11779,7 @@
       <c r="AJ19" s="13"/>
       <c r="AO19" s="13"/>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" ht="16.2">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -11805,7 +11814,7 @@
       <c r="AO20" s="13"/>
       <c r="AP20" s="13"/>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" ht="16.2">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -11839,7 +11848,7 @@
       <c r="AJ21" s="13"/>
       <c r="AO21" s="13"/>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" ht="16.2">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -11873,7 +11882,7 @@
       <c r="AJ22" s="13"/>
       <c r="AO22" s="13"/>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" ht="16.2">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -11907,7 +11916,7 @@
       <c r="AJ23" s="13"/>
       <c r="AO23" s="13"/>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" ht="16.2">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -11944,7 +11953,7 @@
       <c r="AJ24" s="13"/>
       <c r="AO24" s="13"/>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" ht="16.2">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -11978,7 +11987,7 @@
       <c r="AJ25" s="13"/>
       <c r="AO25" s="13"/>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" ht="16.2">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -12012,7 +12021,7 @@
       <c r="AJ26" s="13"/>
       <c r="AO26" s="13"/>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" ht="16.2">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -12046,7 +12055,7 @@
       <c r="AJ27" s="13"/>
       <c r="AO27" s="13"/>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" ht="16.2">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -12080,7 +12089,7 @@
       <c r="AJ28" s="13"/>
       <c r="AO28" s="13"/>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" ht="16.2">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -12114,7 +12123,7 @@
       <c r="AJ29" s="13"/>
       <c r="AO29" s="13"/>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" ht="16.2">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -12148,7 +12157,7 @@
       <c r="AJ30" s="13"/>
       <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" ht="16.2">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -12182,7 +12191,7 @@
       <c r="AJ31" s="13"/>
       <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" ht="16.2">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -12216,7 +12225,7 @@
       <c r="AJ32" s="13"/>
       <c r="AO32" s="13"/>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" ht="16.2">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -12250,7 +12259,7 @@
       <c r="AJ33" s="13"/>
       <c r="AO33" s="13"/>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" ht="16.2">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -12284,7 +12293,7 @@
       <c r="AJ34" s="13"/>
       <c r="AO34" s="13"/>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" ht="16.2">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -12318,7 +12327,7 @@
       <c r="AJ35" s="13"/>
       <c r="AO35" s="13"/>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" ht="16.2">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -12352,7 +12361,7 @@
       <c r="AJ36" s="13"/>
       <c r="AO36" s="13"/>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" ht="16.2">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -12386,7 +12395,7 @@
       <c r="AJ37" s="13"/>
       <c r="AO37" s="13"/>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" ht="16.2">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -12420,7 +12429,7 @@
       <c r="AJ38" s="13"/>
       <c r="AO38" s="13"/>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" ht="16.2">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -12454,7 +12463,7 @@
       <c r="AJ39" s="13"/>
       <c r="AO39" s="13"/>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" ht="16.2">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -12488,7 +12497,7 @@
       <c r="AJ40" s="13"/>
       <c r="AO40" s="13"/>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" ht="16.2">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -12522,7 +12531,7 @@
       <c r="AJ41" s="13"/>
       <c r="AO41" s="13"/>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" ht="16.2">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -12556,7 +12565,7 @@
       <c r="AJ42" s="13"/>
       <c r="AO42" s="13"/>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" ht="16.2">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -12590,7 +12599,7 @@
       <c r="AJ43" s="13"/>
       <c r="AO43" s="13"/>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" ht="16.2">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -12624,7 +12633,7 @@
       <c r="AJ44" s="13"/>
       <c r="AO44" s="13"/>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" ht="16.2">
       <c r="A45" s="12">
         <v>40</v>
       </c>
@@ -12658,7 +12667,7 @@
       <c r="AJ45" s="13"/>
       <c r="AO45" s="13"/>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" ht="16.2">
       <c r="A46" s="12">
         <v>41</v>
       </c>
@@ -12692,7 +12701,7 @@
       <c r="AJ46" s="13"/>
       <c r="AO46" s="13"/>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" ht="16.2">
       <c r="A47" s="12">
         <v>42</v>
       </c>
@@ -12726,7 +12735,7 @@
       <c r="AJ47" s="13"/>
       <c r="AO47" s="13"/>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" ht="16.2">
       <c r="A48" s="12">
         <v>43</v>
       </c>
@@ -12760,7 +12769,7 @@
       <c r="AJ48" s="13"/>
       <c r="AO48" s="13"/>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" ht="16.2">
       <c r="A49" s="12">
         <v>43</v>
       </c>
@@ -12794,7 +12803,7 @@
       <c r="AJ49" s="13"/>
       <c r="AO49" s="13"/>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" ht="16.2">
       <c r="A50" s="12">
         <v>43</v>
       </c>
@@ -12828,7 +12837,7 @@
       <c r="AJ50" s="13"/>
       <c r="AO50" s="13"/>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" ht="16.2">
       <c r="A51" s="12">
         <v>43</v>
       </c>
@@ -12862,7 +12871,7 @@
       <c r="AJ51" s="13"/>
       <c r="AO51" s="13"/>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" ht="16.2">
       <c r="A52" s="12">
         <v>44</v>
       </c>
@@ -12896,7 +12905,7 @@
       <c r="AJ52" s="13"/>
       <c r="AO52" s="13"/>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" ht="16.2">
       <c r="A53" s="12">
         <v>45</v>
       </c>
@@ -12931,7 +12940,7 @@
       <c r="AJ53" s="13"/>
       <c r="AO53" s="13"/>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" ht="16.2">
       <c r="A54" s="12">
         <v>46</v>
       </c>
@@ -12965,7 +12974,7 @@
       <c r="AJ54" s="13"/>
       <c r="AO54" s="13"/>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" ht="16.2">
       <c r="A55" s="12">
         <v>47</v>
       </c>
@@ -12990,7 +12999,7 @@
       <c r="K55" s="12">
         <v>10</v>
       </c>
-      <c r="N55" s="12">
+      <c r="M55" s="12">
         <v>4</v>
       </c>
       <c r="P55" s="12">
@@ -13011,7 +13020,7 @@
       <c r="AJ55" s="13"/>
       <c r="AO55" s="13"/>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" ht="16.2">
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="AB56" s="19"/>
@@ -13035,25 +13044,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R55:R1048576 K12:X21 P2:X11 J2 K2:K11 I3:J21 I22:Q1048576 S22:X1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R55:R1048576 K12:X21 P2:X11 J2 K2:K11 I3:J21 I22:Q1048576 S22:X1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21 G54:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21 G54:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H21 H54:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H21 H54:H1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AG2:AG1048576 AQ2:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AG2:AG1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13062,7 +13071,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -13075,7 +13084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -13083,10 +13092,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
